--- a/uploads/lieu_followup.xlsx
+++ b/uploads/lieu_followup.xlsx
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="26">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="52">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -1356,8 +1356,10 @@
           <t>TRAN QUOC VIET10073657</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>117.3</t>
+        </is>
       </c>
     </row>
     <row r="72">

--- a/uploads/lieu_followup.xlsx
+++ b/uploads/lieu_followup.xlsx
@@ -1330,8 +1330,10 @@
           <t>Tran Minh Tri10349366</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>4</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -1356,10 +1358,8 @@
           <t>TRAN QUOC VIET10073657</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>117.3</t>
-        </is>
+      <c r="C71" t="n">
+        <v>117.3</v>
       </c>
     </row>
     <row r="72">

--- a/uploads/lieu_followup.xlsx
+++ b/uploads/lieu_followup.xlsx
@@ -576,9 +576,7 @@
           <t>HA VAN LONG6970000008</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -680,8 +678,10 @@
           <t>LE THAI HOANG LONG10068423</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>36.6</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1330,10 +1330,8 @@
           <t>Tran Minh Tri10349366</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="C69" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
